--- a/06_Tag 06/PA-Arbeitszeiten_0.6_Cvetkovic_David.xlsx
+++ b/06_Tag 06/PA-Arbeitszeiten_0.6_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\06_Tag 06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E3F00B-4EE7-4755-8247-F998FB7D3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD0A1BD-EF1F-4E98-904B-D4AEF742562E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,9 +608,15 @@
       <c r="D10" s="6">
         <v>0.47847222222222219</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="6">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
